--- a/excels/check/bonus_10.xlsx
+++ b/excels/check/bonus_10.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14340" yWindow="0" windowWidth="14460" windowHeight="12675" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="14340" yWindow="0" windowWidth="14460" windowHeight="12675" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="length change1" sheetId="1" r:id="rId1"/>
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="98">
   <si>
     <t>maze</t>
   </si>
@@ -4984,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <f t="shared" ref="J84:N84" si="1">COUNTIF(J2:J82,37) / 81</f>
+        <f t="shared" ref="J84:L84" si="1">COUNTIF(J2:J82,37) / 81</f>
         <v>0</v>
       </c>
       <c r="K84">
@@ -5008,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <f t="shared" ref="Q84:T84" si="3">COUNTIF(Q2:Q82,21) / 81</f>
+        <f t="shared" ref="Q84:R84" si="3">COUNTIF(Q2:Q82,21) / 81</f>
         <v>0</v>
       </c>
       <c r="R84">
@@ -5042,7 +5042,7 @@
         <v>1156.4444444444443</v>
       </c>
       <c r="I85">
-        <f t="shared" ref="I85:T85" si="6">AVERAGE(I2:I82)</f>
+        <f t="shared" ref="I85:R85" si="6">AVERAGE(I2:I82)</f>
         <v>4788.8888888888887</v>
       </c>
       <c r="J85">
@@ -5087,8 +5087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R85"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84:XFD85"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M34" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5097,7 +5097,7 @@
     <col min="2" max="6" width="14.625" customWidth="1"/>
     <col min="7" max="7" width="5.5" customWidth="1"/>
     <col min="8" max="12" width="14.625" customWidth="1"/>
-    <col min="13" max="13" width="5.875" customWidth="1"/>
+    <col min="13" max="13" width="6.875" bestFit="1" customWidth="1"/>
     <col min="14" max="18" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5135,6 +5135,9 @@
       <c r="L1" t="s">
         <v>91</v>
       </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
       <c r="N1" t="s">
         <v>92</v>
       </c>
@@ -5185,6 +5188,9 @@
       <c r="L2">
         <v>553</v>
       </c>
+      <c r="M2" t="s">
+        <v>1</v>
+      </c>
       <c r="N2">
         <v>255</v>
       </c>
@@ -5235,6 +5241,9 @@
       <c r="L3">
         <v>459</v>
       </c>
+      <c r="M3" t="s">
+        <v>2</v>
+      </c>
       <c r="N3">
         <v>65</v>
       </c>
@@ -5285,6 +5294,9 @@
       <c r="L4">
         <v>385</v>
       </c>
+      <c r="M4" t="s">
+        <v>3</v>
+      </c>
       <c r="N4">
         <v>167</v>
       </c>
@@ -5335,6 +5347,9 @@
       <c r="L5">
         <v>419</v>
       </c>
+      <c r="M5" t="s">
+        <v>4</v>
+      </c>
       <c r="N5">
         <v>243</v>
       </c>
@@ -5385,6 +5400,9 @@
       <c r="L6">
         <v>369</v>
       </c>
+      <c r="M6" t="s">
+        <v>5</v>
+      </c>
       <c r="N6">
         <v>175</v>
       </c>
@@ -5435,6 +5453,9 @@
       <c r="L7">
         <v>613</v>
       </c>
+      <c r="M7" t="s">
+        <v>6</v>
+      </c>
       <c r="N7">
         <v>199</v>
       </c>
@@ -5485,6 +5506,9 @@
       <c r="L8">
         <v>48978</v>
       </c>
+      <c r="M8" t="s">
+        <v>7</v>
+      </c>
       <c r="N8">
         <v>111</v>
       </c>
@@ -5535,6 +5559,9 @@
       <c r="L9">
         <v>49053</v>
       </c>
+      <c r="M9" t="s">
+        <v>8</v>
+      </c>
       <c r="N9">
         <v>67</v>
       </c>
@@ -5585,6 +5612,9 @@
       <c r="L10">
         <v>48978</v>
       </c>
+      <c r="M10" t="s">
+        <v>9</v>
+      </c>
       <c r="N10">
         <v>173</v>
       </c>
@@ -5635,6 +5665,9 @@
       <c r="L11">
         <v>551</v>
       </c>
+      <c r="M11" t="s">
+        <v>10</v>
+      </c>
       <c r="N11">
         <v>207</v>
       </c>
@@ -5685,6 +5718,9 @@
       <c r="L12">
         <v>409</v>
       </c>
+      <c r="M12" t="s">
+        <v>11</v>
+      </c>
       <c r="N12">
         <v>77</v>
       </c>
@@ -5735,6 +5771,9 @@
       <c r="L13">
         <v>377</v>
       </c>
+      <c r="M13" t="s">
+        <v>12</v>
+      </c>
       <c r="N13">
         <v>203</v>
       </c>
@@ -5785,6 +5824,9 @@
       <c r="L14">
         <v>337</v>
       </c>
+      <c r="M14" t="s">
+        <v>13</v>
+      </c>
       <c r="N14">
         <v>149</v>
       </c>
@@ -5835,6 +5877,9 @@
       <c r="L15">
         <v>339</v>
       </c>
+      <c r="M15" t="s">
+        <v>14</v>
+      </c>
       <c r="N15">
         <v>147</v>
       </c>
@@ -5885,6 +5930,9 @@
       <c r="L16">
         <v>405</v>
       </c>
+      <c r="M16" t="s">
+        <v>15</v>
+      </c>
       <c r="N16">
         <v>107</v>
       </c>
@@ -5935,6 +5983,9 @@
       <c r="L17">
         <v>48853</v>
       </c>
+      <c r="M17" t="s">
+        <v>16</v>
+      </c>
       <c r="N17">
         <v>79</v>
       </c>
@@ -5985,6 +6036,9 @@
       <c r="L18">
         <v>49233</v>
       </c>
+      <c r="M18" t="s">
+        <v>17</v>
+      </c>
       <c r="N18">
         <v>179</v>
       </c>
@@ -6035,6 +6089,9 @@
       <c r="L19">
         <v>49012</v>
       </c>
+      <c r="M19" t="s">
+        <v>18</v>
+      </c>
       <c r="N19">
         <v>225</v>
       </c>
@@ -6085,6 +6142,9 @@
       <c r="L20">
         <v>555</v>
       </c>
+      <c r="M20" t="s">
+        <v>19</v>
+      </c>
       <c r="N20">
         <v>125</v>
       </c>
@@ -6135,6 +6195,9 @@
       <c r="L21">
         <v>473</v>
       </c>
+      <c r="M21" t="s">
+        <v>20</v>
+      </c>
       <c r="N21">
         <v>75</v>
       </c>
@@ -6185,6 +6248,9 @@
       <c r="L22">
         <v>383</v>
       </c>
+      <c r="M22" t="s">
+        <v>21</v>
+      </c>
       <c r="N22">
         <v>229</v>
       </c>
@@ -6235,6 +6301,9 @@
       <c r="L23">
         <v>323</v>
       </c>
+      <c r="M23" t="s">
+        <v>22</v>
+      </c>
       <c r="N23">
         <v>263</v>
       </c>
@@ -6285,6 +6354,9 @@
       <c r="L24">
         <v>433</v>
       </c>
+      <c r="M24" t="s">
+        <v>23</v>
+      </c>
       <c r="N24">
         <v>171</v>
       </c>
@@ -6335,6 +6407,9 @@
       <c r="L25">
         <v>629</v>
       </c>
+      <c r="M25" t="s">
+        <v>24</v>
+      </c>
       <c r="N25">
         <v>211</v>
       </c>
@@ -6385,6 +6460,9 @@
       <c r="L26">
         <v>48605</v>
       </c>
+      <c r="M26" t="s">
+        <v>25</v>
+      </c>
       <c r="N26">
         <v>207</v>
       </c>
@@ -6435,6 +6513,9 @@
       <c r="L27">
         <v>49338</v>
       </c>
+      <c r="M27" t="s">
+        <v>26</v>
+      </c>
       <c r="N27">
         <v>177</v>
       </c>
@@ -6485,6 +6566,9 @@
       <c r="L28">
         <v>49280</v>
       </c>
+      <c r="M28" t="s">
+        <v>27</v>
+      </c>
       <c r="N28">
         <v>155</v>
       </c>
@@ -6535,6 +6619,9 @@
       <c r="L29">
         <v>555</v>
       </c>
+      <c r="M29" t="s">
+        <v>28</v>
+      </c>
       <c r="N29">
         <v>235</v>
       </c>
@@ -6585,6 +6672,9 @@
       <c r="L30">
         <v>451</v>
       </c>
+      <c r="M30" t="s">
+        <v>29</v>
+      </c>
       <c r="N30">
         <v>35</v>
       </c>
@@ -6635,6 +6725,9 @@
       <c r="L31">
         <v>427</v>
       </c>
+      <c r="M31" t="s">
+        <v>30</v>
+      </c>
       <c r="N31">
         <v>113</v>
       </c>
@@ -6685,6 +6778,9 @@
       <c r="L32">
         <v>425</v>
       </c>
+      <c r="M32" t="s">
+        <v>31</v>
+      </c>
       <c r="N32">
         <v>81</v>
       </c>
@@ -6735,6 +6831,9 @@
       <c r="L33">
         <v>365</v>
       </c>
+      <c r="M33" t="s">
+        <v>32</v>
+      </c>
       <c r="N33">
         <v>109</v>
       </c>
@@ -6785,6 +6884,9 @@
       <c r="L34">
         <v>551</v>
       </c>
+      <c r="M34" t="s">
+        <v>33</v>
+      </c>
       <c r="N34">
         <v>165</v>
       </c>
@@ -6835,6 +6937,9 @@
       <c r="L35">
         <v>465</v>
       </c>
+      <c r="M35" t="s">
+        <v>34</v>
+      </c>
       <c r="N35">
         <v>65</v>
       </c>
@@ -6885,6 +6990,9 @@
       <c r="L36">
         <v>49096</v>
       </c>
+      <c r="M36" t="s">
+        <v>35</v>
+      </c>
       <c r="N36">
         <v>99</v>
       </c>
@@ -6935,6 +7043,9 @@
       <c r="L37">
         <v>49402</v>
       </c>
+      <c r="M37" t="s">
+        <v>36</v>
+      </c>
       <c r="N37">
         <v>223</v>
       </c>
@@ -6985,6 +7096,9 @@
       <c r="L38">
         <v>567</v>
       </c>
+      <c r="M38" t="s">
+        <v>37</v>
+      </c>
       <c r="N38">
         <v>161</v>
       </c>
@@ -7035,6 +7149,9 @@
       <c r="L39">
         <v>455</v>
       </c>
+      <c r="M39" t="s">
+        <v>38</v>
+      </c>
       <c r="N39">
         <v>163</v>
       </c>
@@ -7085,6 +7202,9 @@
       <c r="L40">
         <v>293</v>
       </c>
+      <c r="M40" t="s">
+        <v>39</v>
+      </c>
       <c r="N40">
         <v>67</v>
       </c>
@@ -7135,6 +7255,9 @@
       <c r="L41">
         <v>309</v>
       </c>
+      <c r="M41" t="s">
+        <v>40</v>
+      </c>
       <c r="N41">
         <v>169</v>
       </c>
@@ -7185,6 +7308,9 @@
       <c r="L42">
         <v>417</v>
       </c>
+      <c r="M42" t="s">
+        <v>41</v>
+      </c>
       <c r="N42">
         <v>125</v>
       </c>
@@ -7235,6 +7361,9 @@
       <c r="L43">
         <v>495</v>
       </c>
+      <c r="M43" t="s">
+        <v>42</v>
+      </c>
       <c r="N43">
         <v>177</v>
       </c>
@@ -7285,6 +7414,9 @@
       <c r="L44">
         <v>48704</v>
       </c>
+      <c r="M44" t="s">
+        <v>43</v>
+      </c>
       <c r="N44">
         <v>165</v>
       </c>
@@ -7335,6 +7467,9 @@
       <c r="L45">
         <v>48891</v>
       </c>
+      <c r="M45" t="s">
+        <v>44</v>
+      </c>
       <c r="N45">
         <v>185</v>
       </c>
@@ -7385,6 +7520,9 @@
       <c r="L46">
         <v>48691</v>
       </c>
+      <c r="M46" t="s">
+        <v>45</v>
+      </c>
       <c r="N46">
         <v>251</v>
       </c>
@@ -7435,6 +7573,9 @@
       <c r="L47">
         <v>621</v>
       </c>
+      <c r="M47" t="s">
+        <v>46</v>
+      </c>
       <c r="N47">
         <v>133</v>
       </c>
@@ -7485,6 +7626,9 @@
       <c r="L48">
         <v>413</v>
       </c>
+      <c r="M48" t="s">
+        <v>47</v>
+      </c>
       <c r="N48">
         <v>157</v>
       </c>
@@ -7535,6 +7679,9 @@
       <c r="L49">
         <v>631</v>
       </c>
+      <c r="M49" t="s">
+        <v>48</v>
+      </c>
       <c r="N49">
         <v>57</v>
       </c>
@@ -7585,6 +7732,9 @@
       <c r="L50">
         <v>363</v>
       </c>
+      <c r="M50" t="s">
+        <v>49</v>
+      </c>
       <c r="N50">
         <v>63</v>
       </c>
@@ -7635,6 +7785,9 @@
       <c r="L51">
         <v>431</v>
       </c>
+      <c r="M51" t="s">
+        <v>50</v>
+      </c>
       <c r="N51">
         <v>161</v>
       </c>
@@ -7685,6 +7838,9 @@
       <c r="L52">
         <v>623</v>
       </c>
+      <c r="M52" t="s">
+        <v>51</v>
+      </c>
       <c r="N52">
         <v>233</v>
       </c>
@@ -7735,6 +7891,9 @@
       <c r="L53">
         <v>48807</v>
       </c>
+      <c r="M53" t="s">
+        <v>52</v>
+      </c>
       <c r="N53">
         <v>63</v>
       </c>
@@ -7785,6 +7944,9 @@
       <c r="L54">
         <v>49048</v>
       </c>
+      <c r="M54" t="s">
+        <v>53</v>
+      </c>
       <c r="N54">
         <v>89</v>
       </c>
@@ -7835,6 +7997,9 @@
       <c r="L55">
         <v>49081</v>
       </c>
+      <c r="M55" t="s">
+        <v>54</v>
+      </c>
       <c r="N55">
         <v>87</v>
       </c>
@@ -7885,6 +8050,9 @@
       <c r="L56">
         <v>531</v>
       </c>
+      <c r="M56" t="s">
+        <v>55</v>
+      </c>
       <c r="N56">
         <v>273</v>
       </c>
@@ -7935,6 +8103,9 @@
       <c r="L57">
         <v>543</v>
       </c>
+      <c r="M57" t="s">
+        <v>56</v>
+      </c>
       <c r="N57">
         <v>199</v>
       </c>
@@ -7985,6 +8156,9 @@
       <c r="L58">
         <v>677</v>
       </c>
+      <c r="M58" t="s">
+        <v>57</v>
+      </c>
       <c r="N58">
         <v>137</v>
       </c>
@@ -8035,6 +8209,9 @@
       <c r="L59">
         <v>503</v>
       </c>
+      <c r="M59" t="s">
+        <v>58</v>
+      </c>
       <c r="N59">
         <v>181</v>
       </c>
@@ -8085,6 +8262,9 @@
       <c r="L60">
         <v>465</v>
       </c>
+      <c r="M60" t="s">
+        <v>59</v>
+      </c>
       <c r="N60">
         <v>163</v>
       </c>
@@ -8135,6 +8315,9 @@
       <c r="L61">
         <v>603</v>
       </c>
+      <c r="M61" t="s">
+        <v>60</v>
+      </c>
       <c r="N61">
         <v>179</v>
       </c>
@@ -8185,6 +8368,9 @@
       <c r="L62">
         <v>48941</v>
       </c>
+      <c r="M62" t="s">
+        <v>61</v>
+      </c>
       <c r="N62">
         <v>157</v>
       </c>
@@ -8235,6 +8421,9 @@
       <c r="L63">
         <v>49330</v>
       </c>
+      <c r="M63" t="s">
+        <v>62</v>
+      </c>
       <c r="N63">
         <v>269</v>
       </c>
@@ -8285,6 +8474,9 @@
       <c r="L64">
         <v>48706</v>
       </c>
+      <c r="M64" t="s">
+        <v>63</v>
+      </c>
       <c r="N64">
         <v>265</v>
       </c>
@@ -8335,6 +8527,9 @@
       <c r="L65">
         <v>421</v>
       </c>
+      <c r="M65" t="s">
+        <v>64</v>
+      </c>
       <c r="N65">
         <v>237</v>
       </c>
@@ -8385,6 +8580,9 @@
       <c r="L66">
         <v>691</v>
       </c>
+      <c r="M66" t="s">
+        <v>65</v>
+      </c>
       <c r="N66">
         <v>321</v>
       </c>
@@ -8435,6 +8633,9 @@
       <c r="L67">
         <v>635</v>
       </c>
+      <c r="M67" t="s">
+        <v>66</v>
+      </c>
       <c r="N67">
         <v>153</v>
       </c>
@@ -8485,6 +8686,9 @@
       <c r="L68">
         <v>475</v>
       </c>
+      <c r="M68" t="s">
+        <v>67</v>
+      </c>
       <c r="N68">
         <v>125</v>
       </c>
@@ -8535,6 +8739,9 @@
       <c r="L69">
         <v>367</v>
       </c>
+      <c r="M69" t="s">
+        <v>68</v>
+      </c>
       <c r="N69">
         <v>65</v>
       </c>
@@ -8585,6 +8792,9 @@
       <c r="L70">
         <v>589</v>
       </c>
+      <c r="M70" t="s">
+        <v>69</v>
+      </c>
       <c r="N70">
         <v>205</v>
       </c>
@@ -8635,6 +8845,9 @@
       <c r="L71">
         <v>48815</v>
       </c>
+      <c r="M71" t="s">
+        <v>70</v>
+      </c>
       <c r="N71">
         <v>357</v>
       </c>
@@ -8685,6 +8898,9 @@
       <c r="L72">
         <v>49208</v>
       </c>
+      <c r="M72" t="s">
+        <v>71</v>
+      </c>
       <c r="N72">
         <v>247</v>
       </c>
@@ -8735,6 +8951,9 @@
       <c r="L73">
         <v>49020</v>
       </c>
+      <c r="M73" t="s">
+        <v>72</v>
+      </c>
       <c r="N73">
         <v>229</v>
       </c>
@@ -8785,6 +9004,9 @@
       <c r="L74">
         <v>447</v>
       </c>
+      <c r="M74" t="s">
+        <v>73</v>
+      </c>
       <c r="N74">
         <v>99</v>
       </c>
@@ -8835,6 +9057,9 @@
       <c r="L75">
         <v>425</v>
       </c>
+      <c r="M75" t="s">
+        <v>74</v>
+      </c>
       <c r="N75">
         <v>321</v>
       </c>
@@ -8885,6 +9110,9 @@
       <c r="L76">
         <v>625</v>
       </c>
+      <c r="M76" t="s">
+        <v>75</v>
+      </c>
       <c r="N76">
         <v>163</v>
       </c>
@@ -8935,6 +9163,9 @@
       <c r="L77">
         <v>609</v>
       </c>
+      <c r="M77" t="s">
+        <v>76</v>
+      </c>
       <c r="N77">
         <v>151</v>
       </c>
@@ -8985,6 +9216,9 @@
       <c r="L78">
         <v>477</v>
       </c>
+      <c r="M78" t="s">
+        <v>77</v>
+      </c>
       <c r="N78">
         <v>221</v>
       </c>
@@ -9035,6 +9269,9 @@
       <c r="L79">
         <v>745</v>
       </c>
+      <c r="M79" t="s">
+        <v>78</v>
+      </c>
       <c r="N79">
         <v>301</v>
       </c>
@@ -9085,6 +9322,9 @@
       <c r="L80">
         <v>48606</v>
       </c>
+      <c r="M80" t="s">
+        <v>79</v>
+      </c>
       <c r="N80">
         <v>105</v>
       </c>
@@ -9135,6 +9375,9 @@
       <c r="L81">
         <v>48889</v>
       </c>
+      <c r="M81" t="s">
+        <v>80</v>
+      </c>
       <c r="N81">
         <v>273</v>
       </c>
@@ -9184,6 +9427,9 @@
       </c>
       <c r="L82">
         <v>49184</v>
+      </c>
+      <c r="M82" t="s">
+        <v>81</v>
       </c>
       <c r="N82">
         <v>379</v>
@@ -13581,7 +13827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="A43" sqref="A43:F46"/>
     </sheetView>
   </sheetViews>
